--- a/src/test/resources/Bulk Excel File/BulkCatagories/CatagoriesTest5.xlsx
+++ b/src/test/resources/Bulk Excel File/BulkCatagories/CatagoriesTest5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\Bulk Excel File\BulkCatagories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDEE350-F0EF-4B7D-B7BC-AC46E5E8964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566D064-AAB4-48FF-B039-EA81DAE6CEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>27 Mar 2025, 11:35</t>
   </si>
   <si>
-    <t>Automation Test</t>
+    <t>Auto444</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Bulk Excel File/BulkCatagories/CatagoriesTest5.xlsx
+++ b/src/test/resources/Bulk Excel File/BulkCatagories/CatagoriesTest5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\Bulk Excel File\BulkCatagories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566D064-AAB4-48FF-B039-EA81DAE6CEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A32DD-324F-414D-BCB1-8D2321EEC54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Shop</t>
   </si>
   <si>
-    <t>ABCD, Kurta Pant With Dupatta 1, Kurta Pant With Dupatta 2, Kurta Pant With Dupatta 3, Kurta Pant With Dupatta 4, Kurta Pant With Dupatta 5, Kurta Pant With Dupatta 7</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>27 Mar 2025, 11:35</t>
+  </si>
+  <si>
+    <t>autotest6, autotest5, autotest4, autotest3, Kurta Pant With Dupatta 1, Kurta Pant With Dupatta 2, Kurta Pant With Dupatta 3, Kurta Pant With Dupatta 4, Kurta Pant With Dupatta 5, Kurta Pant With Dupatta 7</t>
   </si>
   <si>
     <t>Auto444</t>
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -570,49 +570,49 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
